--- a/LiPo.xlsx
+++ b/LiPo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Documents/Fiets/Quest/BurPuter/Arduino/VeloDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB80596E-10F4-7146-A68D-A38D6759C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4048EED4-B872-564F-B80A-B98A887E8871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4F6C8767-B169-664B-A80B-3B60FE7293A8}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -109,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -121,19 +120,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -461,7 +452,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -511,11 +502,11 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <f>A4+(A4-$C$2)*$C$1</f>
+        <f>A4-($C$2-A4)*$C$1</f>
         <v>4200</v>
       </c>
       <c r="D4">
-        <f>INDEX($B$4:$B$24,MATCH(C4,$A$4:$A$24,-1))</f>
+        <f t="shared" ref="D4:D24" si="0">INDEX($B$4:$B$24,MATCH(C4,$A$4:$A$24,-1))</f>
         <v>100</v>
       </c>
     </row>
@@ -527,12 +518,12 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <f>A5+(A5-$C$2)*$C$1</f>
-        <v>4065</v>
+        <f>A5-($C$2-A5)*$C$1</f>
+        <v>3850</v>
       </c>
       <c r="D5">
-        <f>INDEX($B$4:$B$24,MATCH(C5,$A$4:$A$24,-1))</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,12 +534,12 @@
         <v>90</v>
       </c>
       <c r="C6">
-        <f>A6+(A6-$C$2)*$C$1</f>
-        <v>3957</v>
+        <f>A6-($C$2-A6)*$C$1</f>
+        <v>3570</v>
       </c>
       <c r="D6">
-        <f>INDEX($B$4:$B$24,MATCH(C6,$A$4:$A$24,-1))</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,12 +550,12 @@
         <v>85</v>
       </c>
       <c r="C7">
-        <f>A7+(A7-$C$2)*$C$1</f>
-        <v>3876</v>
+        <f>A7-($C$2-A7)*$C$1</f>
+        <v>3360</v>
       </c>
       <c r="D7">
-        <f>INDEX($B$4:$B$24,MATCH(C7,$A$4:$A$24,-1))</f>
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -575,12 +566,12 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <f>A8+(A8-$C$2)*$C$1</f>
-        <v>3714</v>
+        <f>A8-($C$2-A8)*$C$1</f>
+        <v>2940</v>
       </c>
       <c r="D8">
-        <f>INDEX($B$4:$B$24,MATCH(C8,$A$4:$A$24,-1))</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -591,12 +582,12 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <f>A9+(A9-$C$2)*$C$1</f>
-        <v>3606</v>
+        <f>A9-($C$2-A9)*$C$1</f>
+        <v>2660</v>
       </c>
       <c r="D9">
-        <f>INDEX($B$4:$B$24,MATCH(C9,$A$4:$A$24,-1))</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,12 +598,12 @@
         <v>70</v>
       </c>
       <c r="C10">
-        <f>A10+(A10-$C$2)*$C$1</f>
-        <v>3525</v>
+        <f>A10-($C$2-A10)*$C$1</f>
+        <v>2450</v>
       </c>
       <c r="D10">
-        <f>INDEX($B$4:$B$24,MATCH(C10,$A$4:$A$24,-1))</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,12 +614,12 @@
         <v>65</v>
       </c>
       <c r="C11">
-        <f>A11+(A11-$C$2)*$C$1</f>
-        <v>3417</v>
+        <f>A11-($C$2-A11)*$C$1</f>
+        <v>2170</v>
       </c>
       <c r="D11">
-        <f>INDEX($B$4:$B$24,MATCH(C11,$A$4:$A$24,-1))</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,12 +630,12 @@
         <v>60</v>
       </c>
       <c r="C12">
-        <f>A12+(A12-$C$2)*$C$1</f>
-        <v>3309</v>
+        <f>A12-($C$2-A12)*$C$1</f>
+        <v>1890</v>
       </c>
       <c r="D12">
-        <f>INDEX($B$4:$B$24,MATCH(C12,$A$4:$A$24,-1))</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -655,11 +646,11 @@
         <v>55</v>
       </c>
       <c r="C13">
-        <f>A13+(A13-$C$2)*$C$1</f>
-        <v>3255</v>
+        <f>A13-($C$2-A13)*$C$1</f>
+        <v>1750</v>
       </c>
       <c r="D13">
-        <f>INDEX($B$4:$B$24,MATCH(C13,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -671,11 +662,11 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <f>A14+(A14-$C$2)*$C$1</f>
-        <v>3228</v>
+        <f>A14-($C$2-A14)*$C$1</f>
+        <v>1680</v>
       </c>
       <c r="D14">
-        <f>INDEX($B$4:$B$24,MATCH(C14,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -687,11 +678,11 @@
         <v>45</v>
       </c>
       <c r="C15">
-        <f>A15+(A15-$C$2)*$C$1</f>
-        <v>3174</v>
+        <f>A15-($C$2-A15)*$C$1</f>
+        <v>1540</v>
       </c>
       <c r="D15">
-        <f>INDEX($B$4:$B$24,MATCH(C15,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -703,11 +694,11 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <f>A16+(A16-$C$2)*$C$1</f>
-        <v>3120</v>
+        <f>A16-($C$2-A16)*$C$1</f>
+        <v>1400</v>
       </c>
       <c r="D16">
-        <f>INDEX($B$4:$B$24,MATCH(C16,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -719,11 +710,11 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <f>A17+(A17-$C$2)*$C$1</f>
-        <v>3093</v>
+        <f>A17-($C$2-A17)*$C$1</f>
+        <v>1330</v>
       </c>
       <c r="D17">
-        <f>INDEX($B$4:$B$24,MATCH(C17,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -735,118 +726,118 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <f>A18+(A18-$C$2)*$C$1</f>
-        <v>3039</v>
+        <f>A18-($C$2-A18)*$C$1</f>
+        <v>1190</v>
       </c>
       <c r="D18">
-        <f>INDEX($B$4:$B$24,MATCH(C18,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19">
         <v>3750</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>25</v>
       </c>
       <c r="C19">
-        <f>A19+(A19-$C$2)*$C$1</f>
-        <v>2985</v>
+        <f>A19-($C$2-A19)*$C$1</f>
+        <v>1050</v>
       </c>
       <c r="D19">
-        <f>INDEX($B$4:$B$24,MATCH(C19,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>3730</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <f>A20+(A20-$C$2)*$C$1</f>
-        <v>2931</v>
+        <f>A20-($C$2-A20)*$C$1</f>
+        <v>910</v>
       </c>
       <c r="D20">
-        <f>INDEX($B$4:$B$24,MATCH(C20,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>3710</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>15</v>
       </c>
       <c r="C21">
-        <f>A21+(A21-$C$2)*$C$1</f>
-        <v>2877</v>
+        <f>A21-($C$2-A21)*$C$1</f>
+        <v>770</v>
       </c>
       <c r="D21">
-        <f>INDEX($B$4:$B$24,MATCH(C21,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>3690</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>10</v>
       </c>
       <c r="C22">
-        <f>A22+(A22-$C$2)*$C$1</f>
-        <v>2823</v>
+        <f>A22-($C$2-A22)*$C$1</f>
+        <v>630</v>
       </c>
       <c r="D22">
-        <f>INDEX($B$4:$B$24,MATCH(C22,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23">
         <v>3610</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>5</v>
       </c>
       <c r="C23">
-        <f>A23+(A23-$C$2)*$C$1</f>
-        <v>2607</v>
+        <f>A23-($C$2-A23)*$C$1</f>
+        <v>70</v>
       </c>
       <c r="D23">
-        <f>INDEX($B$4:$B$24,MATCH(C23,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24">
         <v>3270</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <f>A24+(A24-$C$2)*$C$1</f>
-        <v>1689</v>
+        <f>A24-($C$2-A24)*$C$1</f>
+        <v>-2310</v>
       </c>
       <c r="D24">
-        <f>INDEX($B$4:$B$24,MATCH(C24,$A$4:$A$24,-1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D24">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B4:B24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="D4:D24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
